--- a/skrum_docs/04_SpecificDesign/01_Account_会社新規アカウント作成メール送信画面仕様書_20170712.xlsx
+++ b/skrum_docs/04_SpecificDesign/01_Account_会社新規アカウント作成メール送信画面仕様書_20170712.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Nohr/OneDrive/Skrum/06_プロダクト開発/プロダクト資料/03_詳細設計/画面仕様書/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Nohr/Dev/skrum/skrum_docs/04_SpecificDesign/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -420,8 +420,8 @@
     <xdr:to>
       <xdr:col>9</xdr:col>
       <xdr:colOff>558800</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>139700</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -431,7 +431,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="7404100" y="2476500"/>
-          <a:ext cx="3327400" cy="914400"/>
+          <a:ext cx="3327400" cy="431800"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -479,39 +479,6 @@
               </a:schemeClr>
             </a:solidFill>
           </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1800" b="1">
-              <a:solidFill>
-                <a:schemeClr val="bg2">
-                  <a:lumMod val="50000"/>
-                </a:schemeClr>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>（</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1800" b="1">
-              <a:solidFill>
-                <a:schemeClr val="bg2">
-                  <a:lumMod val="50000"/>
-                </a:schemeClr>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>2</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1800" b="1">
-              <a:solidFill>
-                <a:schemeClr val="bg2">
-                  <a:lumMod val="50000"/>
-                </a:schemeClr>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>週間無料お試しプラン）</a:t>
-          </a:r>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -977,7 +944,7 @@
               <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
               <a:extLst>
                 <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
-                  <a14:cameraTool cellRange="subsheet!$A$2:$F$5" spid="_x0000_s1027"/>
+                  <a14:cameraTool cellRange="subsheet!$A$2:$F$5" spid="_x0000_s1030"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPicPr>

--- a/skrum_docs/04_SpecificDesign/01_Account_会社新規アカウント作成メール送信画面仕様書_20170712.xlsx
+++ b/skrum_docs/04_SpecificDesign/01_Account_会社新規アカウント作成メール送信画面仕様書_20170712.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="980" yWindow="460" windowWidth="27820" windowHeight="17540" tabRatio="500"/>
+    <workbookView xWindow="1060" yWindow="460" windowWidth="27740" windowHeight="17540" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="会社新規アカウント作成メール送信" sheetId="1" r:id="rId1"/>
@@ -944,7 +944,7 @@
               <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
               <a:extLst>
                 <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
-                  <a14:cameraTool cellRange="subsheet!$A$2:$F$5" spid="_x0000_s1030"/>
+                  <a14:cameraTool cellRange="subsheet!$A$2:$F$5" spid="_x0000_s1033"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPicPr>
@@ -1114,6 +1114,480 @@
             <a:t>}</a:t>
           </a:r>
           <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1800"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>69</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>343054</xdr:colOff>
+      <xdr:row>97</xdr:row>
+      <xdr:rowOff>34392</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="2" name="図形グループ 1"/>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="2451100" y="17830800"/>
+          <a:ext cx="12585854" cy="7070192"/>
+          <a:chOff x="2260600" y="16230600"/>
+          <a:chExt cx="12585854" cy="7070192"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:pic>
+        <xdr:nvPicPr>
+          <xdr:cNvPr id="14" name="図 13"/>
+          <xdr:cNvPicPr>
+            <a:picLocks noChangeAspect="1"/>
+          </xdr:cNvPicPr>
+        </xdr:nvPicPr>
+        <xdr:blipFill>
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+            <a:extLst>
+              <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+                <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              </a:ext>
+            </a:extLst>
+          </a:blip>
+          <a:stretch>
+            <a:fillRect/>
+          </a:stretch>
+        </xdr:blipFill>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="2260600" y="16230600"/>
+            <a:ext cx="12585854" cy="7070192"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+      </xdr:pic>
+      <xdr:pic>
+        <xdr:nvPicPr>
+          <xdr:cNvPr id="15" name="図 14"/>
+          <xdr:cNvPicPr>
+            <a:picLocks noChangeAspect="1"/>
+          </xdr:cNvPicPr>
+        </xdr:nvPicPr>
+        <xdr:blipFill>
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
+            <a:extLst>
+              <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+                <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              </a:ext>
+            </a:extLst>
+          </a:blip>
+          <a:stretch>
+            <a:fillRect/>
+          </a:stretch>
+        </xdr:blipFill>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="4686300" y="18148300"/>
+            <a:ext cx="8193024" cy="4267200"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+      </xdr:pic>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>1041400</xdr:colOff>
+      <xdr:row>58</xdr:row>
+      <xdr:rowOff>127000</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>67</xdr:row>
+      <xdr:rowOff>114808</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="下矢印 2"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7823200" y="15087600"/>
+          <a:ext cx="1447800" cy="2273808"/>
+        </a:xfrm>
+        <a:prstGeom prst="downArrow">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>1054100</xdr:colOff>
+      <xdr:row>59</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>533400</xdr:colOff>
+      <xdr:row>64</xdr:row>
+      <xdr:rowOff>142748</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="5" name="角丸四角形吹き出し 4"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10096500" y="15227300"/>
+          <a:ext cx="1739900" cy="1400048"/>
+        </a:xfrm>
+        <a:prstGeom prst="wedgeRoundRectCallout">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val -103315"/>
+            <a:gd name="adj2" fmla="val 37101"/>
+            <a:gd name="adj3" fmla="val 16667"/>
+          </a:avLst>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2400"/>
+            <a:t>After</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2400" baseline="0"/>
+            <a:t> submission.</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2400"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>469900</xdr:colOff>
+      <xdr:row>72</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>1003300</xdr:colOff>
+      <xdr:row>84</xdr:row>
+      <xdr:rowOff>215900</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="6" name="正方形/長方形 5"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2730500" y="18529300"/>
+          <a:ext cx="11836400" cy="3251200"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1800">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>新規アカウント作成確認メールを以下のメールアドレスに送信しました。</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1800">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1800">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>sample@gmail.com</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1800">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1800">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>メールに記載されている</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1800">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>URL</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1800">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>から本登録を行なってください。</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1800">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1800">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1800">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1800">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>もしメールアドレスを間違えて入力した場合は新規アカウント作成画面に戻り、再度登録を行なってください。</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1800">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>533400</xdr:colOff>
+      <xdr:row>81</xdr:row>
+      <xdr:rowOff>203200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>1003300</xdr:colOff>
+      <xdr:row>83</xdr:row>
+      <xdr:rowOff>139126</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="20" name="図 19"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2794000" y="21005800"/>
+          <a:ext cx="1600200" cy="443926"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>1041400</xdr:colOff>
+      <xdr:row>81</xdr:row>
+      <xdr:rowOff>228600</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>571500</xdr:colOff>
+      <xdr:row>83</xdr:row>
+      <xdr:rowOff>101600</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="25" name="正方形/長方形 24"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3302000" y="21031200"/>
+          <a:ext cx="660400" cy="381000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1600" b="1">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>戻る</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1600" b="1">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:endParaRPr>
         </a:p>
       </xdr:txBody>
     </xdr:sp>

--- a/skrum_docs/04_SpecificDesign/01_Account_会社新規アカウント作成メール送信画面仕様書_20170712.xlsx
+++ b/skrum_docs/04_SpecificDesign/01_Account_会社新規アカウント作成メール送信画面仕様書_20170712.xlsx
@@ -944,7 +944,7 @@
               <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
               <a:extLst>
                 <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
-                  <a14:cameraTool cellRange="subsheet!$A$2:$F$5" spid="_x0000_s1033"/>
+                  <a14:cameraTool cellRange="subsheet!$A$2:$F$5" spid="_x0000_s1040"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPicPr>
@@ -1384,7 +1384,23 @@
                 <a:sysClr val="windowText" lastClr="000000"/>
               </a:solidFill>
             </a:rPr>
-            <a:t>新規アカウント作成確認メールを以下のメールアドレスに送信しました。</a:t>
+            <a:t>新規アカウント作成確認メールを以下の</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1800">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>E</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1800">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>メールアドレスに送信しました。</a:t>
           </a:r>
           <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1800">
             <a:solidFill>
@@ -1400,7 +1416,58 @@
                 <a:sysClr val="windowText" lastClr="000000"/>
               </a:solidFill>
             </a:rPr>
+            <a:t>E</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1800">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>メールアドレス：</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1800">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
             <a:t>sample@gmail.com</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1800">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>サブドメイン</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1800">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>  </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1800">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>　：</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1800">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>company1</a:t>
           </a:r>
         </a:p>
         <a:p>
@@ -1414,6 +1481,14 @@
         <a:p>
           <a:pPr algn="l"/>
           <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1800">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>E</a:t>
+          </a:r>
+          <a:r>
             <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1800">
               <a:solidFill>
                 <a:sysClr val="windowText" lastClr="000000"/>
@@ -1467,7 +1542,23 @@
                 <a:sysClr val="windowText" lastClr="000000"/>
               </a:solidFill>
             </a:rPr>
-            <a:t>もしメールアドレスを間違えて入力した場合は新規アカウント作成画面に戻り、再度登録を行なってください。</a:t>
+            <a:t>もし</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1800">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>E</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1800">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>メールアドレスまたは希望サブドメインを間違えて入力した場合は新規アカウント作成画面に戻り、再度登録を行なってください。</a:t>
           </a:r>
           <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1800">
             <a:solidFill>
@@ -1482,15 +1573,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>533400</xdr:colOff>
-      <xdr:row>81</xdr:row>
-      <xdr:rowOff>203200</xdr:rowOff>
+      <xdr:colOff>508000</xdr:colOff>
+      <xdr:row>85</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>1003300</xdr:colOff>
-      <xdr:row>83</xdr:row>
-      <xdr:rowOff>139126</xdr:rowOff>
+      <xdr:colOff>977900</xdr:colOff>
+      <xdr:row>86</xdr:row>
+      <xdr:rowOff>189926</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1513,7 +1604,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2794000" y="21005800"/>
+          <a:off x="2768600" y="21818600"/>
           <a:ext cx="1600200" cy="443926"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1526,15 +1617,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>1041400</xdr:colOff>
-      <xdr:row>81</xdr:row>
-      <xdr:rowOff>228600</xdr:rowOff>
+      <xdr:colOff>1003300</xdr:colOff>
+      <xdr:row>85</xdr:row>
+      <xdr:rowOff>25400</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>571500</xdr:colOff>
-      <xdr:row>83</xdr:row>
-      <xdr:rowOff>101600</xdr:rowOff>
+      <xdr:colOff>533400</xdr:colOff>
+      <xdr:row>86</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1543,7 +1634,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3302000" y="21031200"/>
+          <a:off x="3263900" y="21844000"/>
           <a:ext cx="660400" cy="381000"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
